--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_104.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_104.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,313 +488,336 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_231</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08311603650586702</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.06, 123.26)]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(6.3, 113.78)]</t>
+          <t>[('0:00:02.470042', '0:00:09.607823')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:18.013446', '0:00:21.856349')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.05499181669394435</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1120923913043478</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['C#:7', 'F#:maj', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[['E:7', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(21.58, 29.34)]</t>
+          <t>[('0:00:42.340000', '0:00:44.580000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>[('0:00:55.002834', '0:00:59.124376')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(63.2, 73.12)]</t>
+          <t>[('0:01:21.100000', '0:01:27.580000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(5.68, 9.64)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:08.200000', '0:00:12.660000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(16.02, 22.5)]</t>
+          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[('0:00:35.820000', '0:00:37.760000'), ('0:00:35.600000', '0:00:37.240000'), ('0:00:08.460000', '0:00:13.460000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:12.700000', '0:00:27.180000'), ('0:00:56.440000', '0:01:06.340000'), ('0:00:00.360000', '0:00:07.140000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1168269230769231</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'A:min7'], ['G/3', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(14.565283, 18.936988), (13.079206, 17.500916)]</t>
+          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(72.26, 75.56), (18.32, 25.82)]</t>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -798,88 +826,86 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_175</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5444444444444444</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[('0:01:43.520929', '0:01:49.476848')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -888,317 +914,258 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36)]</t>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(106.96, 119.34)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(86.66, 96.12)]</t>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:02:02.780000', '0:02:05')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3597560975609756</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G']]</t>
+          <t>[['D', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'E/4', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(34.86, 42.08)]</t>
+          <t>[['F', 'C/3', 'F', 'C/3', 'F', 'C/5', 'F/3', 'G/3', 'C']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(110.32, 122.84)]</t>
+          <t>[('0:02:15.953000', '0:02:26.918000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:02:12.940612', '0:02:18.803650')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98)]</t>
+          <t>[('0:00:00.680000', '0:00:10.700000'), ('0:01:25.700000', '0:01:34.320000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(34.94, 36.86)]</t>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58)]</t>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(51.62, 63.9)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(26.16, 36.86)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
